--- a/文档/江苏明美MES项目调试计划----4.10.xlsx
+++ b/文档/江苏明美MES项目调试计划----4.10.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14940" windowHeight="6675" tabRatio="745" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14940" windowHeight="6675" tabRatio="745" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="13" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="403">
   <si>
     <t>工作中心名称</t>
   </si>
@@ -2361,9 +2361,6 @@
     <t>C线2#人工位</t>
   </si>
   <si>
-    <t>扫码结果:OK/NG:</t>
-  </si>
-  <si>
     <t>工装板SN</t>
   </si>
   <si>
@@ -2846,6 +2843,287 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
+    <t>打带拉力:值:Kgf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块条码1|模块条码2|…..（增加条码枪，待定，不一定加）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前产量、当前效率；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一到周五测试单机流程、数据采集以及对接摩尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；周六日跑整线测试。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线包含二维码的下发，以及多余二维码返回给摩尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。对档位不做限制的前提下，同一尺寸，实现柔性化动作。人工位只做过站处理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一到周五测试单机流程、数据采集以及对接摩尔MES；周六日跑整线测试。A线包含二维码下发，每发一个打一个；支架必须满盘生产，不做缺料生产；电芯数量以满足胶筐数量为前提，不做柔性化生产。人工位只做过站处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一到周五测试单机流程、数据采集以及对接摩尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；周六日跑整线测试。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线整线测试包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流程测试，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用生产最后集中处理方式，单机手动处理，；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据由摩尔内部处理；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线不做柔性化处理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、报警数据在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.4~5.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日写入摩尔服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.28~4.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日跑整线生产；包含设备流程、数据采集、摩尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">          模组长度:值:mm（D6000）</t>
     </r>
@@ -2862,16 +3140,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打带拉力:值:Kgf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>焊接定位结果:OK/NG:</t>
+    <t>扫码结果:OK/NG:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00100301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00100101</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>焊接定位结果:OK（1）/NG（2）:</t>
     </r>
     <r>
       <rPr>
@@ -2882,275 +3168,6 @@
         <charset val="134"/>
       </rPr>
       <t>焊接离焦量（算出结果给到MES）:值:mm|</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块条码1|模块条码2|…..（增加条码枪，待定，不一定加）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前产量、当前效率；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周一到周五测试单机流程、数据采集以及对接摩尔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；周六日跑整线测试。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线包含二维码的下发，以及多余二维码返回给摩尔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。对档位不做限制的前提下，同一尺寸，实现柔性化动作。人工位只做过站处理。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一到周五测试单机流程、数据采集以及对接摩尔MES；周六日跑整线测试。A线包含二维码下发，每发一个打一个；支架必须满盘生产，不做缺料生产；电芯数量以满足胶筐数量为前提，不做柔性化生产。人工位只做过站处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周一到周五测试单机流程、数据采集以及对接摩尔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；周六日跑整线测试。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线整线测试包含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流程测试，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用生产最后集中处理方式，单机手动处理，；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据由摩尔内部处理；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线不做柔性化处理。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、报警数据在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5.4~5.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日写入摩尔服务器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.28~4.30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日跑整线生产；包含设备流程、数据采集、摩尔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MES</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4037,6 +4054,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4088,26 +4147,128 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4118,27 +4279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4147,129 +4287,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4603,11 +4620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
@@ -4630,7 +4647,7 @@
       <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="81">
+      <c r="A4" s="95">
         <v>43105</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -4641,7 +4658,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="81"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="47" t="s">
         <v>238</v>
       </c>
@@ -4650,7 +4667,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="47" t="s">
         <v>240</v>
       </c>
@@ -4659,7 +4676,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="47" t="s">
         <v>245</v>
       </c>
@@ -4668,7 +4685,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="47" t="s">
         <v>217</v>
       </c>
@@ -4677,7 +4694,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="47" t="s">
         <v>225</v>
       </c>
@@ -4686,7 +4703,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A10" s="84">
+      <c r="A10" s="98">
         <v>43125</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -4697,7 +4714,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="54" t="s">
         <v>251</v>
       </c>
@@ -4737,38 +4754,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="157" t="s">
         <v>219</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="157" t="s">
         <v>223</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -4782,11 +4799,11 @@
       <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
@@ -4834,7 +4851,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4846,20 +4863,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
@@ -4868,7 +4885,7 @@
       <c r="B3" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="157" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4882,7 +4899,7 @@
       <c r="B4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="4" t="s">
         <v>184</v>
       </c>
@@ -4935,10 +4952,10 @@
     </row>
     <row r="4" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
@@ -4993,12 +5010,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -5029,10 +5046,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="89">
+      <c r="A4" s="103">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="104" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="7">
@@ -5043,8 +5060,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="7">
         <v>2</v>
       </c>
@@ -5053,8 +5070,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="7">
         <v>3</v>
       </c>
@@ -5063,10 +5080,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="89">
+      <c r="A7" s="103">
         <v>3</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="104" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="7">
@@ -5077,8 +5094,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="7">
         <v>5</v>
       </c>
@@ -5129,10 +5146,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="85">
+      <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="101" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="7">
@@ -5143,8 +5160,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="7">
         <v>14</v>
       </c>
@@ -5280,9 +5297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5305,57 +5322,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
@@ -5394,9 +5411,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
@@ -5542,7 +5559,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>91</v>
+        <v>400</v>
       </c>
       <c r="F7" s="20">
         <v>11</v>
@@ -5605,9 +5622,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5633,54 +5650,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
+      <c r="A1" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="100" t="s">
+      <c r="A2" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="100" t="s">
-        <v>368</v>
-      </c>
       <c r="M2" s="125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N2" s="126"/>
       <c r="O2" s="126"/>
@@ -5689,80 +5706,80 @@
       <c r="R2" s="127"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" s="131" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="I3" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="J3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="131" t="s">
-        <v>364</v>
-      </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="131" t="s">
+      <c r="K3" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="N3" s="131" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="O3" s="131" t="s">
+      <c r="N3" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="131" t="s">
+      <c r="O3" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="Q3" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="132" t="s">
+      <c r="P3" s="86" t="s">
         <v>359</v>
       </c>
+      <c r="Q3" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="128"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="131" t="s">
+      <c r="A4" s="141"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="132" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="132" t="s">
+      <c r="I4" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="131" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="132" t="s">
-        <v>357</v>
-      </c>
-      <c r="P4" s="132" t="s">
+      <c r="O4" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132" t="s">
+      <c r="P4" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5770,17 +5787,17 @@
       <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H5" s="61">
         <v>3</v>
@@ -5792,7 +5809,7 @@
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
       <c r="M5" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="62"/>
@@ -5806,17 +5823,17 @@
       <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="61" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H6" s="61">
         <v>1</v>
@@ -5828,7 +5845,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
       <c r="M6" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N6" s="61"/>
       <c r="O6" s="61"/>
@@ -5840,17 +5857,17 @@
       <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="61">
         <v>2</v>
@@ -5862,10 +5879,10 @@
       <c r="K7" s="61"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O7" s="61"/>
       <c r="P7" s="61"/>
@@ -5876,17 +5893,17 @@
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H8" s="61">
         <v>3</v>
@@ -5898,31 +5915,31 @@
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H9" s="61">
         <v>3</v>
@@ -5933,14 +5950,14 @@
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
-      <c r="M9" s="103" t="s">
-        <v>294</v>
+      <c r="M9" s="118" t="s">
+        <v>293</v>
       </c>
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="78"/>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="119" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5948,17 +5965,17 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H10" s="61">
         <v>3</v>
@@ -5969,22 +5986,22 @@
       </c>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
-      <c r="M10" s="103"/>
+      <c r="M10" s="118"/>
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
       <c r="Q10" s="78"/>
-      <c r="R10" s="104"/>
+      <c r="R10" s="119"/>
     </row>
     <row r="11" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>8</v>
@@ -6002,31 +6019,31 @@
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H12" s="61">
         <v>3</v>
@@ -6038,31 +6055,31 @@
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N12" s="61"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H13" s="61">
         <v>3</v>
@@ -6074,7 +6091,7 @@
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
       <c r="M13" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -6088,17 +6105,17 @@
       <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H14" s="61">
         <v>3</v>
@@ -6110,7 +6127,7 @@
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
@@ -6124,17 +6141,17 @@
       <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F15" s="61" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H15" s="61">
         <v>1</v>
@@ -6146,7 +6163,7 @@
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
       <c r="M15" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N15" s="61"/>
       <c r="O15" s="61"/>
@@ -6158,17 +6175,17 @@
       <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F16" s="61" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H16" s="61">
         <v>1</v>
@@ -6180,7 +6197,7 @@
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
       <c r="M16" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
@@ -6192,11 +6209,11 @@
       <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F17" s="61" t="s">
         <v>14</v>
@@ -6214,25 +6231,25 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F18" s="61" t="s">
         <v>16</v>
@@ -6250,25 +6267,25 @@
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>15</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F19" s="61" t="s">
         <v>18</v>
@@ -6286,25 +6303,25 @@
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
       <c r="M19" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N19" s="61"/>
       <c r="O19" s="61"/>
       <c r="P19" s="61"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F20" s="61" t="s">
         <v>20</v>
@@ -6322,7 +6339,7 @@
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
@@ -6336,11 +6353,11 @@
       <c r="A21" s="21">
         <v>17</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F21" s="61" t="s">
         <v>22</v>
@@ -6358,7 +6375,7 @@
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
       <c r="M21" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
@@ -6372,17 +6389,17 @@
       <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H22" s="61">
         <v>3</v>
@@ -6394,71 +6411,71 @@
       <c r="K22" s="61"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
       <c r="P22" s="61"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="74">
         <v>1</v>
       </c>
-      <c r="B23" s="147" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="137">
+      <c r="B23" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="92">
         <v>43210</v>
       </c>
-      <c r="D23" s="150" t="s">
-        <v>394</v>
+      <c r="D23" s="131" t="s">
+        <v>391</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
-      <c r="Q23" s="153" t="s">
-        <v>392</v>
+      <c r="Q23" s="135" t="s">
+        <v>389</v>
       </c>
       <c r="R23" s="76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A24" s="74">
         <v>2</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="137">
+      <c r="B24" s="129"/>
+      <c r="C24" s="92">
         <v>43206</v>
       </c>
-      <c r="D24" s="151"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H24" s="68">
         <v>3</v>
@@ -6469,36 +6486,36 @@
       </c>
       <c r="K24" s="68"/>
       <c r="L24" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M24" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
       <c r="P24" s="68"/>
-      <c r="Q24" s="154"/>
+      <c r="Q24" s="136"/>
       <c r="R24" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="74">
         <v>3</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="137">
+      <c r="B25" s="129"/>
+      <c r="C25" s="92">
         <v>43207</v>
       </c>
-      <c r="D25" s="151"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>116</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H25" s="68">
         <v>3</v>
@@ -6509,30 +6526,30 @@
       </c>
       <c r="K25" s="68"/>
       <c r="L25" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M25" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N25" s="68"/>
       <c r="O25" s="68"/>
       <c r="P25" s="68"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="134" t="s">
-        <v>378</v>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="89" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="99" x14ac:dyDescent="0.2">
       <c r="A26" s="74">
         <v>4</v>
       </c>
-      <c r="B26" s="148"/>
-      <c r="C26" s="137">
+      <c r="B26" s="129"/>
+      <c r="C26" s="92">
         <v>43207</v>
       </c>
-      <c r="D26" s="151"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>117</v>
@@ -6549,32 +6566,32 @@
       </c>
       <c r="K26" s="68"/>
       <c r="L26" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M26" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N26" s="68"/>
       <c r="O26" s="76"/>
       <c r="P26" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q26" s="154"/>
+        <v>326</v>
+      </c>
+      <c r="Q26" s="136"/>
       <c r="R26" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="74">
         <v>5</v>
       </c>
-      <c r="B27" s="148"/>
-      <c r="C27" s="137">
+      <c r="B27" s="129"/>
+      <c r="C27" s="92">
         <v>43207</v>
       </c>
-      <c r="D27" s="151"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>119</v>
@@ -6591,36 +6608,36 @@
       </c>
       <c r="K27" s="73"/>
       <c r="L27" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M27" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
-      <c r="Q27" s="154"/>
+      <c r="Q27" s="136"/>
       <c r="R27" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="135">
+      <c r="A28" s="90">
         <v>6</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="137">
+      <c r="B28" s="129"/>
+      <c r="C28" s="92">
         <v>43211</v>
       </c>
-      <c r="D28" s="151"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>121</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H28" s="68">
         <v>1</v>
@@ -6631,28 +6648,28 @@
       </c>
       <c r="K28" s="68"/>
       <c r="L28" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M28" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N28" s="68"/>
       <c r="O28" s="68"/>
       <c r="P28" s="68"/>
-      <c r="Q28" s="154"/>
+      <c r="Q28" s="136"/>
       <c r="R28" s="76"/>
     </row>
     <row r="29" spans="1:18" ht="66" x14ac:dyDescent="0.2">
       <c r="A29" s="74">
         <v>7</v>
       </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="137">
+      <c r="B29" s="129"/>
+      <c r="C29" s="92">
         <v>43209</v>
       </c>
-      <c r="D29" s="151"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>122</v>
@@ -6669,30 +6686,30 @@
       </c>
       <c r="K29" s="68"/>
       <c r="L29" s="68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M29" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N29" s="68"/>
       <c r="O29" s="68"/>
       <c r="P29" s="68"/>
-      <c r="Q29" s="154"/>
+      <c r="Q29" s="136"/>
       <c r="R29" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A30" s="74">
         <v>8</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="137">
+      <c r="B30" s="129"/>
+      <c r="C30" s="92">
         <v>43208</v>
       </c>
-      <c r="D30" s="151"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>124</v>
@@ -6709,30 +6726,30 @@
       </c>
       <c r="K30" s="68"/>
       <c r="L30" s="71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M30" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N30" s="68"/>
       <c r="O30" s="68"/>
       <c r="P30" s="68"/>
-      <c r="Q30" s="154"/>
+      <c r="Q30" s="136"/>
       <c r="R30" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="74">
         <v>9</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="137">
+      <c r="B31" s="129"/>
+      <c r="C31" s="92">
         <v>43208</v>
       </c>
-      <c r="D31" s="151"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>126</v>
@@ -6749,30 +6766,30 @@
       </c>
       <c r="K31" s="73"/>
       <c r="L31" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M31" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
       <c r="P31" s="73"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="134" t="s">
-        <v>380</v>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="89" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A32" s="74">
         <v>10</v>
       </c>
-      <c r="B32" s="148"/>
-      <c r="C32" s="137">
+      <c r="B32" s="129"/>
+      <c r="C32" s="92">
         <v>43208</v>
       </c>
-      <c r="D32" s="151"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>128</v>
@@ -6789,30 +6806,30 @@
       </c>
       <c r="K32" s="68"/>
       <c r="L32" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M32" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="68"/>
-      <c r="Q32" s="154"/>
+      <c r="Q32" s="136"/>
       <c r="R32" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A33" s="74">
         <v>11</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="137">
+      <c r="B33" s="129"/>
+      <c r="C33" s="92">
         <v>43211</v>
       </c>
-      <c r="D33" s="151"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>130</v>
@@ -6829,28 +6846,28 @@
       </c>
       <c r="K33" s="68"/>
       <c r="L33" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M33" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
       <c r="P33" s="68"/>
-      <c r="Q33" s="154"/>
+      <c r="Q33" s="136"/>
       <c r="R33" s="76"/>
     </row>
     <row r="34" spans="1:18" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="74">
         <v>12</v>
       </c>
-      <c r="B34" s="148"/>
-      <c r="C34" s="137">
+      <c r="B34" s="129"/>
+      <c r="C34" s="92">
         <v>43208</v>
       </c>
-      <c r="D34" s="151"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>132</v>
@@ -6867,30 +6884,30 @@
       </c>
       <c r="K34" s="68"/>
       <c r="L34" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M34" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="68"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="134" t="s">
-        <v>381</v>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="89" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A35" s="74">
         <v>13</v>
       </c>
-      <c r="B35" s="148"/>
-      <c r="C35" s="137">
+      <c r="B35" s="129"/>
+      <c r="C35" s="92">
         <v>43208</v>
       </c>
-      <c r="D35" s="151"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>134</v>
@@ -6907,30 +6924,30 @@
       </c>
       <c r="K35" s="73"/>
       <c r="L35" s="77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M35" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
       <c r="P35" s="73"/>
-      <c r="Q35" s="154"/>
+      <c r="Q35" s="136"/>
       <c r="R35" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A36" s="74">
         <v>14</v>
       </c>
-      <c r="B36" s="148"/>
-      <c r="C36" s="137">
+      <c r="B36" s="129"/>
+      <c r="C36" s="92">
         <v>43211</v>
       </c>
-      <c r="D36" s="151"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>136</v>
@@ -6947,28 +6964,28 @@
       </c>
       <c r="K36" s="68"/>
       <c r="L36" s="68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M36" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="154"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="136"/>
       <c r="R36" s="76"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="74">
         <v>15</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="137">
+      <c r="B37" s="130"/>
+      <c r="C37" s="92">
         <v>43208</v>
       </c>
-      <c r="D37" s="152"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>138</v>
@@ -6985,34 +7002,34 @@
       </c>
       <c r="K37" s="68"/>
       <c r="L37" s="68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N37" s="68"/>
       <c r="O37" s="68"/>
       <c r="P37" s="68"/>
-      <c r="Q37" s="154"/>
+      <c r="Q37" s="136"/>
       <c r="R37" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="74">
         <v>16</v>
       </c>
-      <c r="B38" s="144" t="s">
-        <v>374</v>
-      </c>
-      <c r="C38" s="137">
+      <c r="B38" s="120" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="92">
         <v>43200</v>
       </c>
-      <c r="D38" s="156" t="s">
-        <v>395</v>
+      <c r="D38" s="134" t="s">
+        <v>392</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>140</v>
@@ -7029,30 +7046,30 @@
       </c>
       <c r="K38" s="68"/>
       <c r="L38" s="68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
       <c r="P38" s="68"/>
-      <c r="Q38" s="154"/>
+      <c r="Q38" s="136"/>
       <c r="R38" s="76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="75" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="74">
         <v>17</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="137">
+      <c r="B39" s="121"/>
+      <c r="C39" s="92">
         <v>43201</v>
       </c>
-      <c r="D39" s="151"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>142</v>
@@ -7069,30 +7086,30 @@
       </c>
       <c r="K39" s="73"/>
       <c r="L39" s="68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
       <c r="P39" s="73"/>
-      <c r="Q39" s="154"/>
+      <c r="Q39" s="136"/>
       <c r="R39" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="70" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="74">
         <v>18</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="137">
+      <c r="B40" s="121"/>
+      <c r="C40" s="92">
         <v>43202</v>
       </c>
-      <c r="D40" s="151"/>
+      <c r="D40" s="132"/>
       <c r="E40" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>144</v>
@@ -7109,30 +7126,30 @@
       </c>
       <c r="K40" s="68"/>
       <c r="L40" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M40" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N40" s="68"/>
       <c r="O40" s="68"/>
       <c r="P40" s="68"/>
-      <c r="Q40" s="154"/>
+      <c r="Q40" s="136"/>
       <c r="R40" s="76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="74">
         <v>19</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="137">
+      <c r="B41" s="121"/>
+      <c r="C41" s="92">
         <v>43200</v>
       </c>
-      <c r="D41" s="151"/>
+      <c r="D41" s="132"/>
       <c r="E41" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>146</v>
@@ -7149,30 +7166,30 @@
       </c>
       <c r="K41" s="68"/>
       <c r="L41" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N41" s="68"/>
       <c r="O41" s="68"/>
       <c r="P41" s="68"/>
-      <c r="Q41" s="154"/>
+      <c r="Q41" s="136"/>
       <c r="R41" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="75" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="74">
         <v>20</v>
       </c>
-      <c r="B42" s="145"/>
-      <c r="C42" s="137">
+      <c r="B42" s="121"/>
+      <c r="C42" s="92">
         <v>43201</v>
       </c>
-      <c r="D42" s="151"/>
+      <c r="D42" s="132"/>
       <c r="E42" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>148</v>
@@ -7189,28 +7206,28 @@
       </c>
       <c r="K42" s="68"/>
       <c r="L42" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N42" s="68"/>
       <c r="O42" s="68"/>
       <c r="P42" s="68"/>
-      <c r="Q42" s="154"/>
+      <c r="Q42" s="136"/>
       <c r="R42" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A43" s="74">
         <v>21</v>
       </c>
-      <c r="B43" s="145"/>
-      <c r="C43" s="137">
+      <c r="B43" s="121"/>
+      <c r="C43" s="92">
         <v>43202</v>
       </c>
-      <c r="D43" s="151"/>
+      <c r="D43" s="132"/>
       <c r="E43" s="68" t="s">
         <v>274</v>
       </c>
@@ -7229,30 +7246,30 @@
       </c>
       <c r="K43" s="73"/>
       <c r="L43" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
-      <c r="Q43" s="154"/>
+      <c r="Q43" s="136"/>
       <c r="R43" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="69" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A44" s="135">
+      <c r="A44" s="90">
         <v>22</v>
       </c>
-      <c r="B44" s="145"/>
-      <c r="C44" s="137">
+      <c r="B44" s="121"/>
+      <c r="C44" s="92">
         <v>43203</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="132"/>
       <c r="E44" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>152</v>
@@ -7269,72 +7286,72 @@
       </c>
       <c r="K44" s="68"/>
       <c r="L44" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M44" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N44" s="68"/>
       <c r="O44" s="68"/>
       <c r="P44" s="68"/>
-      <c r="Q44" s="154"/>
+      <c r="Q44" s="136"/>
       <c r="R44" s="76" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="69" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="135">
+      <c r="A45" s="90">
         <v>23</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="137" t="s">
-        <v>373</v>
-      </c>
-      <c r="D45" s="152"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" s="133"/>
       <c r="E45" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
       <c r="L45" s="68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N45" s="68"/>
       <c r="O45" s="68"/>
       <c r="P45" s="68"/>
-      <c r="Q45" s="154"/>
+      <c r="Q45" s="136"/>
       <c r="R45" s="76"/>
     </row>
     <row r="46" spans="1:18" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A46" s="74">
         <v>24</v>
       </c>
-      <c r="B46" s="144" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="137">
+      <c r="B46" s="120" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="92">
         <v>43213</v>
       </c>
-      <c r="D46" s="156" t="s">
-        <v>393</v>
+      <c r="D46" s="134" t="s">
+        <v>390</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>154</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H46" s="68">
         <v>3</v>
@@ -7345,17 +7362,17 @@
       </c>
       <c r="K46" s="68"/>
       <c r="L46" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N46" s="68"/>
       <c r="O46" s="68"/>
       <c r="P46" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q46" s="154"/>
+        <v>292</v>
+      </c>
+      <c r="Q46" s="136"/>
       <c r="R46" s="76" t="s">
         <v>188</v>
       </c>
@@ -7364,19 +7381,19 @@
       <c r="A47" s="74">
         <v>25</v>
       </c>
-      <c r="B47" s="145"/>
-      <c r="C47" s="137">
+      <c r="B47" s="121"/>
+      <c r="C47" s="92">
         <v>43214</v>
       </c>
-      <c r="D47" s="151"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="68" t="s">
         <v>274</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>91</v>
+        <v>401</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H47" s="68">
         <v>2</v>
@@ -7387,65 +7404,65 @@
       </c>
       <c r="K47" s="68"/>
       <c r="L47" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M47" s="68" t="s">
         <v>272</v>
       </c>
       <c r="N47" s="71" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O47" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P47" s="71"/>
-      <c r="Q47" s="154"/>
+      <c r="Q47" s="136"/>
       <c r="R47" s="68"/>
     </row>
     <row r="48" spans="1:18" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="138">
+      <c r="A48" s="142">
         <v>26</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="137">
+      <c r="B48" s="121"/>
+      <c r="C48" s="92">
         <v>43216</v>
       </c>
-      <c r="D48" s="151"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="68"/>
       <c r="F48" s="68"/>
-      <c r="G48" s="139" t="s">
-        <v>291</v>
+      <c r="G48" s="113" t="s">
+        <v>290</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="68"/>
       <c r="J48" s="68"/>
       <c r="K48" s="68"/>
       <c r="L48" s="68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M48" s="68"/>
       <c r="N48" s="71"/>
       <c r="O48" s="71"/>
       <c r="P48" s="71"/>
-      <c r="Q48" s="154"/>
+      <c r="Q48" s="136"/>
       <c r="R48" s="68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="140"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="137">
+      <c r="A49" s="143"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="92">
         <v>43216</v>
       </c>
-      <c r="D49" s="151"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="68" t="s">
         <v>274</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="141"/>
+        <v>396</v>
+      </c>
+      <c r="G49" s="114"/>
       <c r="H49" s="68">
         <v>3</v>
       </c>
@@ -7455,64 +7472,64 @@
       </c>
       <c r="K49" s="68"/>
       <c r="L49" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M49" s="68" t="s">
         <v>272</v>
       </c>
       <c r="N49" s="68"/>
       <c r="O49" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P49" s="71"/>
-      <c r="Q49" s="154"/>
+      <c r="Q49" s="136"/>
       <c r="R49" s="76" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.2">
-      <c r="A50" s="142">
+      <c r="A50" s="93">
         <v>27</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="137">
+      <c r="B50" s="121"/>
+      <c r="C50" s="92">
         <v>43217</v>
       </c>
-      <c r="D50" s="151"/>
+      <c r="D50" s="132"/>
       <c r="E50" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F50" s="68"/>
-      <c r="G50" s="143" t="s">
-        <v>288</v>
+      <c r="G50" s="94" t="s">
+        <v>287</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="68"/>
       <c r="K50" s="68"/>
       <c r="L50" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M50" s="68" t="s">
         <v>272</v>
       </c>
       <c r="N50" s="68"/>
       <c r="O50" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P50" s="71"/>
-      <c r="Q50" s="154"/>
+      <c r="Q50" s="136"/>
       <c r="R50" s="76"/>
     </row>
     <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A51" s="74">
         <v>28</v>
       </c>
-      <c r="B51" s="145"/>
-      <c r="C51" s="137">
+      <c r="B51" s="121"/>
+      <c r="C51" s="92">
         <v>43215</v>
       </c>
-      <c r="D51" s="151"/>
+      <c r="D51" s="132"/>
       <c r="E51" s="68" t="s">
         <v>274</v>
       </c>
@@ -7520,41 +7537,41 @@
         <v>156</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H51" s="68">
         <v>1</v>
       </c>
       <c r="I51" s="68"/>
       <c r="J51" s="68" t="s">
-        <v>156</v>
+        <v>399</v>
       </c>
       <c r="K51" s="68"/>
       <c r="L51" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M51" s="68" t="s">
         <v>272</v>
       </c>
       <c r="N51" s="68"/>
       <c r="O51" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P51" s="71"/>
-      <c r="Q51" s="154"/>
+      <c r="Q51" s="136"/>
       <c r="R51" s="68" t="s">
-        <v>283</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="135">
+      <c r="A52" s="90">
         <v>29</v>
       </c>
-      <c r="B52" s="145"/>
-      <c r="C52" s="137">
+      <c r="B52" s="121"/>
+      <c r="C52" s="92">
         <v>43217</v>
       </c>
-      <c r="D52" s="151"/>
+      <c r="D52" s="132"/>
       <c r="E52" s="68" t="s">
         <v>274</v>
       </c>
@@ -7581,18 +7598,18 @@
       <c r="N52" s="68"/>
       <c r="O52" s="68"/>
       <c r="P52" s="68"/>
-      <c r="Q52" s="154"/>
+      <c r="Q52" s="136"/>
       <c r="R52" s="68"/>
     </row>
     <row r="53" spans="1:18" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="135">
+      <c r="A53" s="90">
         <v>30</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="137">
+      <c r="B53" s="121"/>
+      <c r="C53" s="92">
         <v>43217</v>
       </c>
-      <c r="D53" s="151"/>
+      <c r="D53" s="132"/>
       <c r="E53" s="68" t="s">
         <v>274</v>
       </c>
@@ -7619,20 +7636,20 @@
       <c r="N53" s="68"/>
       <c r="O53" s="68"/>
       <c r="P53" s="68"/>
-      <c r="Q53" s="154"/>
+      <c r="Q53" s="136"/>
       <c r="R53" s="71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A54" s="74">
         <v>31</v>
       </c>
-      <c r="B54" s="145"/>
-      <c r="C54" s="137">
+      <c r="B54" s="121"/>
+      <c r="C54" s="92">
         <v>43216</v>
       </c>
-      <c r="D54" s="151"/>
+      <c r="D54" s="132"/>
       <c r="E54" s="68" t="s">
         <v>274</v>
       </c>
@@ -7659,20 +7676,20 @@
       <c r="N54" s="68"/>
       <c r="O54" s="68"/>
       <c r="P54" s="68"/>
-      <c r="Q54" s="154"/>
+      <c r="Q54" s="136"/>
       <c r="R54" s="76" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="135">
+      <c r="A55" s="90">
         <v>32</v>
       </c>
-      <c r="B55" s="145"/>
-      <c r="C55" s="137">
+      <c r="B55" s="121"/>
+      <c r="C55" s="92">
         <v>43217</v>
       </c>
-      <c r="D55" s="151"/>
+      <c r="D55" s="132"/>
       <c r="E55" s="68" t="s">
         <v>274</v>
       </c>
@@ -7699,7 +7716,7 @@
       <c r="N55" s="68"/>
       <c r="O55" s="68"/>
       <c r="P55" s="68"/>
-      <c r="Q55" s="154"/>
+      <c r="Q55" s="136"/>
       <c r="R55" s="68" t="s">
         <v>275</v>
       </c>
@@ -7708,11 +7725,11 @@
       <c r="A56" s="74">
         <v>33</v>
       </c>
-      <c r="B56" s="146"/>
-      <c r="C56" s="137">
+      <c r="B56" s="122"/>
+      <c r="C56" s="92">
         <v>43217</v>
       </c>
-      <c r="D56" s="152"/>
+      <c r="D56" s="133"/>
       <c r="E56" s="68" t="s">
         <v>274</v>
       </c>
@@ -7739,16 +7756,16 @@
       <c r="N56" s="68"/>
       <c r="O56" s="68"/>
       <c r="P56" s="68"/>
-      <c r="Q56" s="155"/>
+      <c r="Q56" s="137"/>
       <c r="R56" s="68"/>
     </row>
     <row r="57" spans="1:18" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>49</v>
       </c>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
       <c r="E57" s="61" t="s">
         <v>265</v>
       </c>
@@ -7782,9 +7799,9 @@
       <c r="A58" s="21">
         <v>50</v>
       </c>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="61" t="s">
         <v>265</v>
       </c>
@@ -7818,9 +7835,9 @@
       <c r="A59" s="21">
         <v>51</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
       <c r="E59" s="10" t="s">
         <v>265</v>
       </c>
@@ -7851,41 +7868,41 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="157" t="s">
-        <v>396</v>
-      </c>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="98"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="98"/>
-      <c r="R61" s="98"/>
+      <c r="B61" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="138"/>
+      <c r="P61" s="138"/>
+      <c r="Q61" s="138"/>
+      <c r="R61" s="138"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="158" t="s">
-        <v>398</v>
-      </c>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
+      <c r="B62" s="123" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
       <c r="G62" s="65"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="158" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
+      <c r="B63" s="123" t="s">
+        <v>394</v>
+      </c>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
       <c r="G63" s="64"/>
     </row>
   </sheetData>
@@ -7914,12 +7931,12 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="B46:B56"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7934,7 +7951,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -7957,54 +7974,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -8043,8 +8060,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
@@ -8095,7 +8112,7 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="147" t="s">
         <v>257</v>
       </c>
       <c r="F5" s="7">
@@ -8104,10 +8121,10 @@
       <c r="G5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="147" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="147" t="s">
         <v>261</v>
       </c>
       <c r="J5" s="7">
@@ -8116,13 +8133,13 @@
       <c r="K5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="N5" s="112" t="s">
+      <c r="N5" s="150" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8139,24 +8156,24 @@
       <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="113"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="151"/>
     </row>
     <row r="7" spans="1:14" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -8171,24 +8188,24 @@
       <c r="D7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="24">
         <v>4</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
       <c r="J7" s="24">
         <v>5</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="114"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="152"/>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -8211,36 +8228,36 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="96" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96" t="s">
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
       <c r="N9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
@@ -8279,8 +8296,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
@@ -8395,7 +8412,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8410,39 +8427,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="115"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="156"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
@@ -8460,9 +8477,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
@@ -8631,36 +8648,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -8681,8 +8698,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
@@ -8814,49 +8831,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="96" t="s">
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
@@ -8886,9 +8903,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
@@ -9108,43 +9125,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
@@ -9165,9 +9182,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
